--- a/tl/S10003.MES.BIN.xlsx
+++ b/tl/S10003.MES.BIN.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25928"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B17C1A0C-00F4-4FBF-832D-2003503344F9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5FC32711-A8A2-484A-87EA-B1CB0160CEF6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2565" yWindow="8745" windowWidth="53205" windowHeight="21180" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="5385" yWindow="6135" windowWidth="43200" windowHeight="23535" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="S10003.MES.BIN" sheetId="1" r:id="rId1"/>
@@ -77,106 +77,106 @@
     <t>7</t>
   </si>
   <si>
+    <t>Well...</t>
+  </si>
+  <si>
+    <t>9</t>
+  </si>
+  <si>
+    <t>Yuki hestitates on the other side of the phone.</t>
+  </si>
+  <si>
+    <t>11</t>
+  </si>
+  <si>
+    <t>Um, I... Well... maybe... I was just thinking that...</t>
+  </si>
+  <si>
+    <t>Um, I... Yeah... Maybe... That means... But...</t>
+  </si>
+  <si>
+    <t>13</t>
+  </si>
+  <si>
+    <t>Hmm?</t>
+  </si>
+  <si>
+    <t>15</t>
+  </si>
+  <si>
+    <t>...The day of the school festival... I'm not sure, but... Maybe I could take the day off...</t>
+  </si>
+  <si>
+    <t>...The day of the school festival... Maybe I should ask for the day off... I might get it...</t>
+  </si>
+  <si>
+    <t>17</t>
+  </si>
+  <si>
+    <t>Ehh...?</t>
+  </si>
+  <si>
+    <t>19</t>
+  </si>
+  <si>
+    <t>This is sudden.</t>
+  </si>
+  <si>
+    <t>21</t>
+  </si>
+  <si>
+    <t>Ah, no. Never mind. Yeah...Actually...I probably won't be able to get the day off...</t>
+  </si>
+  <si>
+    <t>Oh, no. Maybe that's why. Yeah...I probably won't be able to get it off, I feel.</t>
+  </si>
+  <si>
+    <t>23</t>
+  </si>
+  <si>
+    <t>Is that so... Sorry, Yuki... I...</t>
+  </si>
+  <si>
+    <t>I'm sorry, Yuki. I didn't realize you might be able to get the day off.</t>
+  </si>
+  <si>
+    <t>25</t>
+  </si>
+  <si>
+    <t>Ah! I'm sure you'll be busy anyway!</t>
+  </si>
+  <si>
+    <t>It's okay! I figured you thought I couldn't get the day off.</t>
+  </si>
+  <si>
+    <t>27</t>
+  </si>
+  <si>
+    <t>Regardless of whether or not she could take the day off, Yuki definitely wanted to say "let's go together" to me.</t>
+  </si>
+  <si>
+    <t>Regardless of whether she can get the day off or not, it is definitely true that Yuki wanted to say "Let's go together" to me.</t>
+  </si>
+  <si>
+    <t>29</t>
+  </si>
+  <si>
+    <t>...I don't actually know if I could take the day off, but I still can't ask you, can I, Touya-kun...</t>
+  </si>
+  <si>
+    <t>...Even if I could get the day off, it's not right to invite you, Touya-kun, is it?</t>
+  </si>
+  <si>
+    <t>31</t>
+  </si>
+  <si>
     <t>Yeah...</t>
   </si>
   <si>
-    <t>9</t>
-  </si>
-  <si>
-    <t>Yuki hestitates on the other side of the phone.</t>
-  </si>
-  <si>
-    <t>11</t>
-  </si>
-  <si>
-    <t>Um, I...yeah...maybe it's that...I think it might be the case...</t>
-  </si>
-  <si>
-    <t>Um, I... Yeah... Maybe... That means... But...</t>
-  </si>
-  <si>
-    <t>13</t>
-  </si>
-  <si>
-    <t>Hmm?</t>
-  </si>
-  <si>
-    <t>15</t>
-  </si>
-  <si>
-    <t>...The day of the school festival... I don't know if it's possible to take a day off...but maybe I can...</t>
-  </si>
-  <si>
-    <t>...The day of the school festival... Maybe I should ask for the day off... I might get it...</t>
-  </si>
-  <si>
-    <t>17</t>
-  </si>
-  <si>
-    <t>Ehh...?</t>
-  </si>
-  <si>
-    <t>19</t>
-  </si>
-  <si>
-    <t>She mentions this suddenly.</t>
-  </si>
-  <si>
-    <t>This is sudden.</t>
-  </si>
-  <si>
-    <t>21</t>
-  </si>
-  <si>
-    <t>Oh, no. Maybe not. Yeah...Actually...I probably won't be able to get it off, I feel.</t>
-  </si>
-  <si>
-    <t>Oh, no. Maybe that's why. Yeah...I probably won't be able to get it off, I feel.</t>
-  </si>
-  <si>
-    <t>23</t>
-  </si>
-  <si>
-    <t>Is that so... Sorry, Yuki... I...</t>
-  </si>
-  <si>
-    <t>I'm sorry, Yuki. I didn't realize you might be able to get the day off.</t>
-  </si>
-  <si>
-    <t>25</t>
-  </si>
-  <si>
-    <t>No! I'm sure I won't be able to take the day off!</t>
-  </si>
-  <si>
-    <t>It's okay! I figured you thought I couldn't get the day off.</t>
-  </si>
-  <si>
-    <t>27</t>
-  </si>
-  <si>
-    <t>Regardless of whether or not you can take the day off, Yuki, you definitely wanted to say "let's go together" to me.</t>
-  </si>
-  <si>
-    <t>Regardless of whether she can get the day off or not, it is definitely true that Yuki wanted to say "Let's go together" to me.</t>
-  </si>
-  <si>
-    <t>29</t>
-  </si>
-  <si>
-    <t>It's wrong for me to invite you since I don't even know if I'd get the day off for sure, right Touya-kun?</t>
-  </si>
-  <si>
-    <t>...Even if I could get the day off, it's not right to invite you, Touya-kun, is it?</t>
-  </si>
-  <si>
-    <t>31</t>
-  </si>
-  <si>
     <t>33</t>
   </si>
   <si>
-    <t>But, even if it was just a "maybe", I still wanted to experience the school festival with you this year...</t>
+    <t>But, even if it was just a "maybe", I still wanted to enjoy the mood of the two of us being able to go to the school festival together.</t>
   </si>
   <si>
     <t>But I wanted to feel the mood of being able to go to the school festival together this year, even if it was just a "maybe".</t>
@@ -197,7 +197,7 @@
     <t>39</t>
   </si>
   <si>
-    <t>I was really looking forward to going with her, but she can't make it. Still, I wish we could have enjoyed it together.</t>
+    <t>Even though I made plans, I still wanted to enjoy this kind of event together.</t>
   </si>
   <si>
     <t>I didn't want to have a partner I couldn't meet, but at least I wanted to enjoy this kind of event together.</t>
@@ -662,7 +662,7 @@
   <dimension ref="A1:J28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
+      <selection activeCell="F16" sqref="F16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -818,7 +818,7 @@
         <v>9</v>
       </c>
       <c r="F5" s="4" t="s">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="G5" s="5" t="s">
         <v>20</v>
@@ -1013,7 +1013,7 @@
         <v>34</v>
       </c>
       <c r="G11" s="5" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H11" s="5" t="s">
         <v>9</v>
@@ -1030,7 +1030,7 @@
         <v>9</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C12" s="2" t="s">
         <v>14</v>
@@ -1042,10 +1042,10 @@
         <v>9</v>
       </c>
       <c r="F12" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="G12" s="3" t="s">
         <v>37</v>
-      </c>
-      <c r="G12" s="3" t="s">
-        <v>38</v>
       </c>
       <c r="H12" s="3" t="s">
         <v>9</v>
@@ -1062,7 +1062,7 @@
         <v>9</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C13" s="4" t="s">
         <v>10</v>
@@ -1074,10 +1074,10 @@
         <v>9</v>
       </c>
       <c r="F13" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="G13" s="5" t="s">
         <v>40</v>
-      </c>
-      <c r="G13" s="5" t="s">
-        <v>41</v>
       </c>
       <c r="H13" s="5" t="s">
         <v>9</v>
@@ -1094,7 +1094,7 @@
         <v>9</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C14" s="2" t="s">
         <v>14</v>
@@ -1106,10 +1106,10 @@
         <v>9</v>
       </c>
       <c r="F14" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="G14" s="3" t="s">
         <v>43</v>
-      </c>
-      <c r="G14" s="3" t="s">
-        <v>44</v>
       </c>
       <c r="H14" s="3" t="s">
         <v>9</v>
@@ -1126,22 +1126,22 @@
         <v>9</v>
       </c>
       <c r="B15" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="C15" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D15" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E15" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="F15" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="C15" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="D15" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="E15" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="F15" s="4" t="s">
+      <c r="G15" s="5" t="s">
         <v>46</v>
-      </c>
-      <c r="G15" s="5" t="s">
-        <v>47</v>
       </c>
       <c r="H15" s="5" t="s">
         <v>9</v>
@@ -1158,7 +1158,7 @@
         <v>9</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C16" s="2" t="s">
         <v>14</v>
@@ -1170,10 +1170,10 @@
         <v>9</v>
       </c>
       <c r="F16" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="G16" s="3" t="s">
         <v>49</v>
-      </c>
-      <c r="G16" s="3" t="s">
-        <v>50</v>
       </c>
       <c r="H16" s="3" t="s">
         <v>9</v>
@@ -1190,7 +1190,7 @@
         <v>9</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C17" s="4" t="s">
         <v>10</v>
@@ -1205,7 +1205,7 @@
         <v>9</v>
       </c>
       <c r="G17" s="5" t="s">
-        <v>20</v>
+        <v>51</v>
       </c>
       <c r="H17" s="5" t="s">
         <v>9</v>
@@ -1461,7 +1461,7 @@
         <v>9</v>
       </c>
       <c r="G25" s="5" t="s">
-        <v>20</v>
+        <v>51</v>
       </c>
       <c r="H25" s="5" t="s">
         <v>9</v>
